--- a/common/serverspace/notification.xlsx
+++ b/common/serverspace/notification.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexander.alekseev.ITGLOBAL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>TechTitle</t>
   </si>
@@ -366,6 +361,124 @@
   </si>
   <si>
     <t>&lt;p&gt;ticket ID:{0}&lt;/p&gt;    &lt;p&gt;Title:{1}&lt;/p&gt;    &lt;p&gt;Text:{2}&lt;/p&gt;    &lt;p&gt;email:{3}&lt;/p&gt;    &lt;p&gt;link: {4}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE html PUBLIC "-//W3C//DTD XHTML 1.0 Transitional//EN" "http://www.w3.org/TR/xhtml1/DTD/xhtml1-transitional.dtd"&gt;&lt;html xmlns="http://www.w3.org/1999/xhtml"&gt;
+&lt;head&gt; &lt;meta name="viewport" content="width=device-width; initial-scale=1.0; maximum-scale=1.0;" /&gt; &lt;/head&gt; 
+&lt;body yahoo="fix" leftmargin="0" topmargin="0" marginwidth="0" marginheight="0"&gt; &lt;!--Main Table Start--&gt; 
+ &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0" bgcolor="#EBEBEB"&gt; 
+  &lt;tr&gt;
+  &lt;td align="center" valign="middle"&gt;&lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt; 
+   &lt;tr&gt;&lt;td align="center" valign="middle"&gt;&lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;
+   &lt;tr&gt;&lt;td height="90" align="center" valign="top" style="font-size:90px; line-height:90px;"&gt;&lt;span style="display: none;"&gt;Complete registration in Serverspace&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt; 
+   &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+   &lt;tr&gt;&lt;td align="center" valign="middle"&gt;&lt;table width="550"border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;
+   &lt;tr&gt;
+   &lt;td align="center" valign="top" bgcolor="#544f81" style="-moz-border-radius: 5px 5px 0px 0px; border-radius: 5px 5px 0px 0px;"&gt;
+   &lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="two-left"&gt;
+   &lt;tr&gt;&lt;td height="15" align="center" valign="top" style="font-size:15px; line-height:15px;"&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;
+   &lt;tr&gt;&lt;td align="center" valign="top"&gt;
+   &lt;table border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+   &lt;tr&gt;
+   &lt;td align="center" width="150" valign="middle"&gt;
+    &lt;a target="_blank" href="https://serverspace.io"&gt;
+    &lt;img editable="true" mc:edit="bm14-01" src="https://serverspace.io/img/logo/logo2.png" width="172" height="45" alt="logo" /&gt;
+    &lt;/a&gt;
+   &lt;/td&gt;
+   &lt;td align="center" width="360" valign="middle"&gt;&amp;nbsp;&lt;/td&gt;
+   &lt;/tr&gt;
+   &lt;/table&gt;&lt;/td&gt;
+   &lt;/tr&gt;
+   &lt;tr&gt;&lt;td height="15" align="center" valign="top" style="font-size:15px; line-height:15px;"&gt;&amp;nbsp;&lt;/td&gt;
+   &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;/td&gt;
+   &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;/td&gt;
+   &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+    &lt;tr&gt;
+     &lt;td align="center" valign="middle"&gt;
+      &lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;
+       &lt;tr&gt;
+        &lt;td align="center" valign="top" bgcolor="#FFFFFF"&gt;
+         &lt;table width="380" border="0" align="center" cellpadding="0" cellspacing="0" class="two-left"&gt;
+          &lt;tr&gt;
+           &lt;td height="15" align="center" valign="top" style="font-size:15px; line-height:15px;"&gt;&amp;nbsp;&lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;tr&gt;
+           &lt;td align="center" valign="top"&gt;
+            &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+             &lt;tr&gt;
+              &lt;td align="center" valign="top" style="font-family:Trebuchet MS, sans-serif; font-size:26px; color:#4c4c4c; font-weight:normal; line-height:24px;" mc:edit="bm14-05"&gt;&lt;multiline&gt;&lt;br&gt;&lt;b&gt;Please confirm your&amp;nbsp;email&lt;/b&gt;&lt;/multiline&gt;&lt;/td&gt;
+             &lt;/tr&gt;
+             &lt;tr&gt;
+              &lt;td align="center" valign="top" style="font-family:Trebuchet MS, sans-serif; font-size:16px; color:#4c4c4c; font-weight:normal; line-height:24px;" mc:edit="bm14-02"&gt;
+               &lt;multiline&gt;&lt;br&gt;Complete registration in &lt;a target="_blank" style="color: #544f81;" href="https://serverspace.io"&gt;serverspace&lt;/a&gt; by clicking&amp;nbsp;&amp;#171;Confirm&amp;#187; button.&lt;br&gt;This link is valid for 3 days.&lt;/multiline&gt;
+              &lt;/td&gt;
+             &lt;/tr&gt;
+             &lt;tr&gt;
+              &lt;td align="center" valign="top"&gt;&amp;nbsp;&lt;/td&gt;
+             &lt;/tr&gt;
+             &lt;tr&gt;
+              &lt;td align="center" valign="top"&gt;
+               &lt;table cellpadding="0" cellspacing="0" border="0" align="center" bgcolor="#544f81" style="border-radius: 4px;"&gt;
+                &lt;tbody&gt;
+                 &lt;tr&gt;
+                  &lt;td width="200" align="center" valign="middle" height="45"&gt;&lt;span style="color: #ffffff; text-decoration: none;"&gt;
+                   &lt;a href="{0}" style="font-family:Trebuchet MS, sans-serif; font-size: 16px; color: #ffffff; display: block; height: 45px; line-height: 45px; font-weight: normal; text-decoration: none; text-align: center !important;" target="_blank" class="button" rel="friend"&gt;Confirm&lt;/a&gt;&lt;/span&gt;
+                  &lt;/td&gt;
+                 &lt;/tr&gt;
+                &lt;/tbody&gt;
+               &lt;/table&gt;
+              &lt;/td&gt;
+             &lt;/tr&gt;
+            &lt;/table&gt;
+           &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;tr&gt;&lt;td height="30" align="center" valign="top" style="font-size:30px; line-height:30px;"&gt;&amp;nbsp;&lt;/td&gt;
+          &lt;/tr&gt;
+         &lt;/table&gt;
+        &lt;/td&gt;
+       &lt;/tr&gt;
+      &lt;/table&gt;
+     &lt;/td&gt;
+    &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+    &lt;tr&gt;
+     &lt;td align="center" valign="middle"&gt;
+      &lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;
+       &lt;tr&gt;&lt;td align="center" valign="top" bgcolor="#FFFFFF" style="-moz-border-radius:0px 0px 5px 5px; border-radius:0px 0px 5px 5px;"&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;
+      &lt;/table&gt;
+     &lt;/td&gt;
+    &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+    &lt;tr&gt;&lt;td align="center" valign="middle"&gt;&lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;&lt;tr&gt;&lt;td align="center" valign="top"&gt;&lt;table width="380" border="0" align="center" cellpadding="0" cellspacing="0" class="two-left"&gt;&lt;tr&gt;&lt;td height="20" align="center" valign="top" style="font-size:20px; line-height:20px;"&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;
+    &lt;tr&gt;&lt;td align="center" valign="top" style="font-family:Trebuchet MS, sans-serif; font-size:12px; color:#c4c4c4; font-weight:bold; line-height:20px;" mc:edit="bm14-04"&gt;&lt;multiline&gt;Copyright &amp;copy; 2012-2019 serverspace.io &lt;/multiline&gt;
+    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;
+    &lt;/tr&gt;
+   &lt;/table&gt;
+   &lt;table width="100%" border="0" align="center" cellpadding="0" cellspacing="0"&gt;
+    &lt;tr&gt;
+     &lt;td align="center" valign="middle"&gt;
+      &lt;table width="550" border="0" align="center" cellpadding="0" cellspacing="0" class="main"&gt;
+       &lt;tr&gt;&lt;td height="90" align="center" valign="top" style="font-size:90px; line-height:90px;"&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;
+      &lt;/table&gt;
+     &lt;/td&gt;
+    &lt;/tr&gt;
+   &lt;/table&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+ &lt;/table&gt; &lt;!--Main Table End--&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -402,12 +515,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +813,7 @@
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,8 +834,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -752,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -763,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -785,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -796,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -807,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -818,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -829,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -840,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -851,7 +970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -862,7 +981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
